--- a/_таблицы_тест_кейсов Нестерова.xlsx
+++ b/_таблицы_тест_кейсов Нестерова.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>passed</t>
   </si>
@@ -599,6 +599,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -607,27 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,7 +966,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1021,8 +1021,8 @@
   <sheetPr codeName="Worksheet____5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1066,7 +1066,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="13">
         <f>COUNTIF(L$8:L$26,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="13">
@@ -1111,7 +1111,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="14">
         <f>COUNTIF(L$8:L$26,"passed")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="14">
@@ -1154,7 +1154,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="19"/>
+      <c r="L3" s="19">
+        <v>43641</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="19"/>
       <c r="O3" s="10"/>
@@ -1238,43 +1240,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="39" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="37"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="36"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="36"/>
+      <c r="R6" s="43"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="36"/>
+      <c r="T6" s="43"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1284,29 +1286,29 @@
     </row>
     <row r="7" spans="1:26" ht="27.75" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="38"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="36"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="36"/>
+      <c r="N7" s="43"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="36"/>
+      <c r="P7" s="43"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="36"/>
+      <c r="R7" s="43"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="36"/>
+      <c r="T7" s="43"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1336,7 +1338,9 @@
       <c r="I8" s="18"/>
       <c r="J8" s="17"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="10"/>
@@ -1372,7 +1376,9 @@
       <c r="I9" s="24"/>
       <c r="J9" s="17"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
@@ -1408,7 +1414,9 @@
       <c r="I10" s="18"/>
       <c r="J10" s="17"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10"/>
@@ -1444,7 +1452,9 @@
       <c r="I11" s="18"/>
       <c r="J11" s="26"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="10"/>
       <c r="N11" s="27"/>
       <c r="O11" s="10"/>
@@ -1480,7 +1490,9 @@
       <c r="I12" s="18"/>
       <c r="J12" s="26"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="27"/>
+      <c r="L12" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="27"/>
       <c r="O12" s="10"/>
@@ -1516,7 +1528,9 @@
       <c r="I13" s="18"/>
       <c r="J13" s="17"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="5"/>
       <c r="O13" s="10"/>
@@ -1552,7 +1566,9 @@
       <c r="I14" s="18"/>
       <c r="J14" s="17"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="10"/>
       <c r="N14" s="5"/>
       <c r="O14" s="10"/>
@@ -1588,7 +1604,9 @@
       <c r="I15" s="18"/>
       <c r="J15" s="17"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="5"/>
       <c r="O15" s="10"/>
@@ -1624,7 +1642,9 @@
       <c r="I16" s="18"/>
       <c r="J16" s="17"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="10"/>
       <c r="N16" s="5"/>
       <c r="O16" s="10"/>
@@ -1660,7 +1680,9 @@
       <c r="I17" s="32"/>
       <c r="J17" s="31"/>
       <c r="K17" s="29"/>
-      <c r="L17" s="33"/>
+      <c r="L17" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="M17" s="34"/>
       <c r="N17" s="33"/>
       <c r="O17" s="34"/>
@@ -1695,7 +1717,9 @@
       <c r="I18" s="18"/>
       <c r="J18" s="17"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M18" s="10"/>
       <c r="N18" s="5"/>
       <c r="O18" s="10"/>
@@ -1731,7 +1755,9 @@
       <c r="I19" s="18"/>
       <c r="J19" s="17"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M19" s="10"/>
       <c r="N19" s="5"/>
       <c r="O19" s="10"/>
@@ -1767,7 +1793,9 @@
       <c r="I20" s="18"/>
       <c r="J20" s="17"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="10"/>
       <c r="N20" s="5"/>
       <c r="O20" s="10"/>
@@ -2452,12 +2480,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -2465,6 +2487,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N26 L8:L26 R8:R26 P8:P26 T8:T26">
